--- a/실무_엑셀_예제_파일/Chapter07/07-003.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-003.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9352403-93F2-477B-8128-5DADEF35FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB470F6-C86F-45DF-A708-1E8E032D6052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="684" windowWidth="14772" windowHeight="13692" xr2:uid="{232232B6-1851-4BA5-A3F6-144C3D45D756}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{232232B6-1851-4BA5-A3F6-144C3D45D756}"/>
   </bookViews>
   <sheets>
     <sheet name="체육실기평가" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -598,17 +589,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613B32B6-8DB8-4A56-8EBB-7A143D573FD5}">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="6" max="7" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
@@ -618,20 +611,20 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="2:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="9.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -665,10 +658,16 @@
         <f>AVERAGE(C7:D7)</f>
         <v>160</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F7" s="3" t="str">
+        <f>IF(E7&gt;=140,"합격","불합격")</f>
+        <v>합격</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>IF(F7="불합격", E7-140, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -682,10 +681,16 @@
         <f t="shared" ref="E8:E20" si="0">AVERAGE(C8:D8)</f>
         <v>168</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F8" s="5" t="str">
+        <f t="shared" ref="F8:F20" si="1">IF(E8&gt;=140,"합격","불합격")</f>
+        <v>합격</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ref="G8:G20" si="2">IF(F8="불합격", E8-140, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -699,10 +704,16 @@
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>불합격</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -716,10 +727,16 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>불합격</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -733,10 +750,16 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>불합격</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -750,10 +773,16 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>합격</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -767,10 +796,16 @@
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>불합격</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -784,10 +819,16 @@
         <f t="shared" si="0"/>
         <v>181.5</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>합격</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -801,10 +842,16 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>합격</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -818,10 +865,16 @@
         <f t="shared" si="0"/>
         <v>106.5</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>불합격</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>-33.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -835,10 +888,16 @@
         <f t="shared" si="0"/>
         <v>134.5</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>불합격</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -852,10 +911,16 @@
         <f t="shared" si="0"/>
         <v>173.5</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>합격</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -869,10 +934,16 @@
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>합격</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
@@ -886,8 +957,14 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>합격</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
